--- a/Partlist.xlsx
+++ b/Partlist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b110da114a94f03e/Dokumente/Matthias/Projekte/Git_Repos/Leuchtali/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{DD236F07-5FDF-4770-A731-9D510B5D5D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{093FDAD9-A355-4796-A07C-EB855A763B11}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="8_{DD236F07-5FDF-4770-A731-9D510B5D5D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FFF0142-6AC5-4DC1-9B32-ECF12EF8DB24}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA540DB9-D0BB-439A-8B50-CD3BDA355433}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>Schematic</t>
   </si>
@@ -80,9 +80,6 @@
     <t>IC1</t>
   </si>
   <si>
-    <t>R2, R12</t>
-  </si>
-  <si>
     <t>Erwin</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>https://www.mouser.de/ProductDetail/Murata-Electronics/GRM21BR70J225KA01K?qs=qSsZt%252BRQeyYbmElEmFzc8A%3D%3D</t>
   </si>
   <si>
-    <t>C11, C12, C4, C8, C16, C20</t>
-  </si>
-  <si>
     <t>Cap 2.2uF 6.3V</t>
   </si>
   <si>
@@ -147,6 +141,72 @@
   </si>
   <si>
     <t>Diode</t>
+  </si>
+  <si>
+    <t>C1, C5, C13, C17, C11, C12, C4, C8, C16, C20</t>
+  </si>
+  <si>
+    <t>R1, R11</t>
+  </si>
+  <si>
+    <t>Poti 2.5kOhm</t>
+  </si>
+  <si>
+    <t>R3, R4, R13, R17</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/KOA-Speer/RN732ATTD1261D25?qs=sGAEpiMZZMtlubZbdhIBIIDnHkvmv181OH7qZavAgtI%3D</t>
+  </si>
+  <si>
+    <t>Widerstand 1260Ohm</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Panasonic/ERJ-6ENF2262V?qs=sGAEpiMZZMtlubZbdhIBIGigBIB3A6R90z0X8TmiJPo%3D</t>
+  </si>
+  <si>
+    <t>Widerstand 22.6kOhm</t>
+  </si>
+  <si>
+    <t>R5, R8, R14, R18</t>
+  </si>
+  <si>
+    <t>R2, R12, R6, R9, R15, R19</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Bourns/CR0805-FX-1502ELF?qs=sGAEpiMZZMtlubZbdhIBIKGXf6O5%2Fb09wlSGXvTGIXs%3D</t>
+  </si>
+  <si>
+    <t>Widerstand 15kOhm</t>
+  </si>
+  <si>
+    <t>R7, R10, R16, R20</t>
+  </si>
+  <si>
+    <t>Sicherungshalter</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Littelfuse/64600001223?qs=up76HT6PtJjfTS5uVso6wg%3D%3D</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Bel-Fuse/5HF-3.15-R?qs=MvPYbBWWJyvgqnL35rjnGw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1 </t>
+  </si>
+  <si>
+    <t>Sicherung</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/144483815449?hash=item21a3e81019:g:eTcAAOSwUtdiRh16</t>
+  </si>
+  <si>
+    <t>MSOP Adapter</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -520,15 +580,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CA5CE1-EFC3-465D-8A61-DAE2F30FA22F}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="99.42578125" bestFit="1" customWidth="1"/>
@@ -619,44 +679,44 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
       <c r="C6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -665,19 +725,19 @@
         <v>0.46600000000000003</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E5:E7" si="0">C7*D7</f>
+        <f t="shared" ref="E7" si="0">C7*D7</f>
         <v>1.8640000000000001</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -690,15 +750,15 @@
         <v>0.504</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -711,15 +771,15 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -732,15 +792,15 @@
         <v>1.62</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -753,7 +813,156 @@
         <v>2.4319999999999999</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E18" si="1">C13*D13</f>
+        <v>3.21</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>3.21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>4.99</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f>SUM(E2:E27)</f>
+        <v>55.011999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -767,8 +976,14 @@
     <hyperlink ref="F7" r:id="rId6" xr:uid="{67F947D4-EC72-4EBF-9B8B-72E1445CD76B}"/>
     <hyperlink ref="F10" r:id="rId7" xr:uid="{36825201-B087-4FCE-AE3E-D964226A1DE1}"/>
     <hyperlink ref="F11" r:id="rId8" xr:uid="{24A14C2D-5C6C-40E7-8481-3EAA28BC1245}"/>
+    <hyperlink ref="F13" r:id="rId9" xr:uid="{4538698B-C765-4466-8CE8-1CC44C088516}"/>
+    <hyperlink ref="F14" r:id="rId10" xr:uid="{F7ACDDAE-867D-46B1-A46A-7550A8F61077}"/>
+    <hyperlink ref="F15" r:id="rId11" xr:uid="{FC7D08E8-3B50-4FD1-B5F1-DE3C598CC861}"/>
+    <hyperlink ref="F16" r:id="rId12" xr:uid="{6B1AC6EF-45AA-4A45-9CAB-D0A345B7AB6B}"/>
+    <hyperlink ref="F17" r:id="rId13" xr:uid="{A4CDC4E7-12FC-48CE-AC2F-0B539345A684}"/>
+    <hyperlink ref="F18" r:id="rId14" xr:uid="{3B74FE22-AF30-46E0-84FD-0EB2A2AD70E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>